--- a/class/client-server.xlsx
+++ b/class/client-server.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20680" yWindow="-19500" windowWidth="28800" windowHeight="16980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20680" yWindow="-19500" windowWidth="28800" windowHeight="16980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="client-server.csv" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="v1" sheetId="2" r:id="rId2"/>
+    <sheet name="v3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="client_server" localSheetId="1">Sheet1!$A$2:$F$28</definedName>
+    <definedName name="client_server" localSheetId="0">'client-server.csv'!$A$2:$F$29</definedName>
+    <definedName name="client_server" localSheetId="1">'v1'!$A$2:$F$27</definedName>
+    <definedName name="client_server" localSheetId="2">'v3'!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -36,11 +39,35 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="client-server.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:nathanwoods:workspaces:go:src:github.com:bign8:cdn:class:v3:client-server.csv" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="client-server.csv2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:nathanwoods:workspaces:go:src:github.com:bign8:cdn:class:v3:client-server.csv" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>count</t>
   </si>
@@ -70,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +121,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,17 +146,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -174,11 +229,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'client-server.csv'!$B$1</c:f>
+              <c:f>'client-server.csv'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>client_reqs</c:v>
+                  <c:v>count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -186,12 +241,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'client-server.csv'!$A$2:$A$28</c:f>
+              <c:f>'client-server.csv'!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -269,99 +324,6 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>53.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'client-server.csv'!$B$2:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>805.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2555.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4088.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5817.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7777.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9261.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10745.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12880.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14168.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16142.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17598.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19468.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21812.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23163.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24633.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26323.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27916.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30142.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31593.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32270.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>34790.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>36043.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37443.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>39700.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>41359.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43368.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44660.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,11 +335,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'client-server.csv'!$E$1</c:f>
+              <c:f>'client-server.csv'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cdn_miss</c:v>
+                  <c:v>client_reqs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -385,182 +347,89 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'client-server.csv'!$A$2:$A$28</c:f>
+              <c:f>'client-server.csv'!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>882.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>2331.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>4116.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>5817.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>7441.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.0</c:v>
+                  <c:v>9093.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.0</c:v>
+                  <c:v>10850.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.0</c:v>
+                  <c:v>12509.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.0</c:v>
+                  <c:v>14364.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.0</c:v>
+                  <c:v>15792.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.0</c:v>
+                  <c:v>17389.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.0</c:v>
+                  <c:v>19252.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.0</c:v>
+                  <c:v>21042.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.0</c:v>
+                  <c:v>23020.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.0</c:v>
+                  <c:v>24255.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.0</c:v>
+                  <c:v>25914.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.0</c:v>
+                  <c:v>28070.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.0</c:v>
+                  <c:v>29534.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.0</c:v>
+                  <c:v>29918.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.0</c:v>
+                  <c:v>32522.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.0</c:v>
+                  <c:v>33558.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43.0</c:v>
+                  <c:v>35882.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45.0</c:v>
+                  <c:v>36379.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47.0</c:v>
+                  <c:v>37895.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49.0</c:v>
+                  <c:v>38907.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>53.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'client-server.csv'!$E$2:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>470.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1447.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2039.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2890.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3489.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3583.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4457.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5307.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6095.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5877.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6754.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6871.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8162.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7954.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8414.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8151.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9438.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9531.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9668.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8964.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10724.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11529.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11133.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10241.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10806.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12516.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10970.0</c:v>
+                  <c:v>40607.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,11 +441,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'client-server.csv'!$F$1</c:f>
+              <c:f>'client-server.csv'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s2s</c:v>
+                  <c:v>cdn_miss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -584,182 +453,195 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'client-server.csv'!$A$2:$A$28</c:f>
+              <c:f>'client-server.csv'!$E$2:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>413.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>659.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>1054.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>1311.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.0</c:v>
+                  <c:v>1584.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.0</c:v>
+                  <c:v>1636.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.0</c:v>
+                  <c:v>1972.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.0</c:v>
+                  <c:v>2040.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.0</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.0</c:v>
+                  <c:v>2540.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.0</c:v>
+                  <c:v>2737.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.0</c:v>
+                  <c:v>2750.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.0</c:v>
+                  <c:v>2818.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.0</c:v>
+                  <c:v>3325.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.0</c:v>
+                  <c:v>3352.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.0</c:v>
+                  <c:v>3298.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.0</c:v>
+                  <c:v>3254.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.0</c:v>
+                  <c:v>2642.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.0</c:v>
+                  <c:v>3607.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.0</c:v>
+                  <c:v>2980.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43.0</c:v>
+                  <c:v>3659.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45.0</c:v>
+                  <c:v>3301.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47.0</c:v>
+                  <c:v>2959.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49.0</c:v>
+                  <c:v>3422.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>53.0</c:v>
+                  <c:v>3477.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'client-server.csv'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s2s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'client-server.csv'!$F$2:$F$28</c:f>
+              <c:f>'client-server.csv'!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1102.0</c:v>
+                  <c:v>409.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3487.0</c:v>
+                  <c:v>1159.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5339.0</c:v>
+                  <c:v>2110.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7812.0</c:v>
+                  <c:v>2838.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10020.0</c:v>
+                  <c:v>3597.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11253.0</c:v>
+                  <c:v>4496.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13836.0</c:v>
+                  <c:v>5585.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16795.0</c:v>
+                  <c:v>6411.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18433.0</c:v>
+                  <c:v>7539.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20204.0</c:v>
+                  <c:v>8529.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21994.0</c:v>
+                  <c:v>9172.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23539.0</c:v>
+                  <c:v>10120.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27411.0</c:v>
+                  <c:v>11270.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27185.0</c:v>
+                  <c:v>12651.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28997.0</c:v>
+                  <c:v>12871.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30235.0</c:v>
+                  <c:v>13893.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33694.0</c:v>
+                  <c:v>15540.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35484.0</c:v>
+                  <c:v>16491.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37560.0</c:v>
+                  <c:v>17257.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35823.0</c:v>
+                  <c:v>18088.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40840.0</c:v>
+                  <c:v>19536.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44159.0</c:v>
+                  <c:v>20433.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43402.0</c:v>
+                  <c:v>20992.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43574.0</c:v>
+                  <c:v>22349.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45813.0</c:v>
+                  <c:v>22544.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50095.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>48722.0</c:v>
+                  <c:v>23582.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,11 +658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2110665896"/>
-        <c:axId val="-2110648056"/>
+        <c:axId val="-2097391416"/>
+        <c:axId val="-2139124520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110665896"/>
+        <c:axId val="-2097391416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,7 +696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110648056"/>
+        <c:crossAx val="-2139124520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -822,7 +704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110648056"/>
+        <c:axId val="-2139124520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110665896"/>
+        <c:crossAx val="-2097391416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -915,7 +797,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="client-server" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="client-server" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="client-server" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1242,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1273,19 +1163,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>805</v>
+        <v>882</v>
       </c>
       <c r="C2">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E2">
-        <v>470</v>
+        <v>206</v>
       </c>
       <c r="F2">
-        <v>1102</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1293,19 +1183,19 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2555</v>
+        <v>2331</v>
       </c>
       <c r="C3">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D3">
-        <v>1401</v>
+        <v>1159</v>
       </c>
       <c r="E3">
-        <v>1447</v>
+        <v>413</v>
       </c>
       <c r="F3">
-        <v>3487</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1313,19 +1203,19 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4088</v>
+        <v>4116</v>
       </c>
       <c r="C4">
-        <v>430</v>
+        <v>532</v>
       </c>
       <c r="D4">
-        <v>2214</v>
+        <v>2110</v>
       </c>
       <c r="E4">
-        <v>2039</v>
+        <v>659</v>
       </c>
       <c r="F4">
-        <v>5339</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1336,16 +1226,16 @@
         <v>5817</v>
       </c>
       <c r="C5">
-        <v>551</v>
+        <v>725</v>
       </c>
       <c r="D5">
-        <v>3322</v>
+        <v>2838</v>
       </c>
       <c r="E5">
-        <v>2890</v>
+        <v>1054</v>
       </c>
       <c r="F5">
-        <v>7812</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1353,19 +1243,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>7777</v>
+        <v>7441</v>
       </c>
       <c r="C6">
-        <v>644</v>
+        <v>917</v>
       </c>
       <c r="D6">
-        <v>4334</v>
+        <v>3597</v>
       </c>
       <c r="E6">
-        <v>3489</v>
+        <v>1311</v>
       </c>
       <c r="F6">
-        <v>10020</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1373,19 +1263,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>9261</v>
+        <v>9093</v>
       </c>
       <c r="C7">
-        <v>711</v>
+        <v>1084</v>
       </c>
       <c r="D7">
-        <v>4879</v>
+        <v>4496</v>
       </c>
       <c r="E7">
-        <v>3583</v>
+        <v>1584</v>
       </c>
       <c r="F7">
-        <v>11253</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1393,19 +1283,19 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>10745</v>
+        <v>10850</v>
       </c>
       <c r="C8">
-        <v>778</v>
+        <v>1241</v>
       </c>
       <c r="D8">
-        <v>6104</v>
+        <v>5585</v>
       </c>
       <c r="E8">
-        <v>4457</v>
+        <v>1636</v>
       </c>
       <c r="F8">
-        <v>13836</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1413,19 +1303,19 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>12880</v>
+        <v>12509</v>
       </c>
       <c r="C9">
-        <v>814</v>
+        <v>1393</v>
       </c>
       <c r="D9">
-        <v>7546</v>
+        <v>6411</v>
       </c>
       <c r="E9">
-        <v>5307</v>
+        <v>1972</v>
       </c>
       <c r="F9">
-        <v>16795</v>
+        <v>6411</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1433,19 +1323,19 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>14168</v>
+        <v>14364</v>
       </c>
       <c r="C10">
-        <v>841</v>
+        <v>1512</v>
       </c>
       <c r="D10">
-        <v>8325</v>
+        <v>7539</v>
       </c>
       <c r="E10">
-        <v>6095</v>
+        <v>2040</v>
       </c>
       <c r="F10">
-        <v>18433</v>
+        <v>7539</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1453,19 +1343,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>16142</v>
+        <v>15792</v>
       </c>
       <c r="C11">
-        <v>876</v>
+        <v>1661</v>
       </c>
       <c r="D11">
-        <v>9177</v>
+        <v>8529</v>
       </c>
       <c r="E11">
-        <v>5877</v>
+        <v>2009</v>
       </c>
       <c r="F11">
-        <v>20204</v>
+        <v>8529</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1473,19 +1363,19 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>17598</v>
+        <v>17389</v>
       </c>
       <c r="C12">
-        <v>912</v>
+        <v>1793</v>
       </c>
       <c r="D12">
-        <v>10038</v>
+        <v>9171</v>
       </c>
       <c r="E12">
-        <v>6754</v>
+        <v>2540</v>
       </c>
       <c r="F12">
-        <v>21994</v>
+        <v>9172</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1493,19 +1383,19 @@
         <v>23</v>
       </c>
       <c r="B13">
-        <v>19468</v>
+        <v>19252</v>
       </c>
       <c r="C13">
-        <v>907</v>
+        <v>1860</v>
       </c>
       <c r="D13">
-        <v>10807</v>
+        <v>10120</v>
       </c>
       <c r="E13">
-        <v>6871</v>
+        <v>2737</v>
       </c>
       <c r="F13">
-        <v>23539</v>
+        <v>10120</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1513,19 +1403,19 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>21812</v>
+        <v>21042</v>
       </c>
       <c r="C14">
-        <v>916</v>
+        <v>2036</v>
       </c>
       <c r="D14">
-        <v>12737</v>
+        <v>11270</v>
       </c>
       <c r="E14">
-        <v>8162</v>
+        <v>2750</v>
       </c>
       <c r="F14">
-        <v>27411</v>
+        <v>11270</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1533,19 +1423,19 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>23163</v>
+        <v>23020</v>
       </c>
       <c r="C15">
-        <v>958</v>
+        <v>2103</v>
       </c>
       <c r="D15">
-        <v>12569</v>
+        <v>12650</v>
       </c>
       <c r="E15">
-        <v>7954</v>
+        <v>2818</v>
       </c>
       <c r="F15">
-        <v>27185</v>
+        <v>12651</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1553,19 +1443,19 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>24633</v>
+        <v>24255</v>
       </c>
       <c r="C16">
-        <v>954</v>
+        <v>2207</v>
       </c>
       <c r="D16">
-        <v>13475</v>
+        <v>12871</v>
       </c>
       <c r="E16">
-        <v>8414</v>
+        <v>3325</v>
       </c>
       <c r="F16">
-        <v>28997</v>
+        <v>12871</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1573,19 +1463,19 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>26323</v>
+        <v>25914</v>
       </c>
       <c r="C17">
-        <v>970</v>
+        <v>2306</v>
       </c>
       <c r="D17">
-        <v>14079</v>
+        <v>13893</v>
       </c>
       <c r="E17">
-        <v>8151</v>
+        <v>3352</v>
       </c>
       <c r="F17">
-        <v>30235</v>
+        <v>13893</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1593,19 +1483,19 @@
         <v>33</v>
       </c>
       <c r="B18">
-        <v>27916</v>
+        <v>28070</v>
       </c>
       <c r="C18">
-        <v>965</v>
+        <v>2342</v>
       </c>
       <c r="D18">
-        <v>15811</v>
+        <v>15540</v>
       </c>
       <c r="E18">
-        <v>9438</v>
+        <v>3298</v>
       </c>
       <c r="F18">
-        <v>33694</v>
+        <v>15540</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1613,19 +1503,19 @@
         <v>35</v>
       </c>
       <c r="B19">
-        <v>30142</v>
+        <v>29534</v>
       </c>
       <c r="C19">
-        <v>984</v>
+        <v>2406</v>
       </c>
       <c r="D19">
-        <v>16688</v>
+        <v>16489</v>
       </c>
       <c r="E19">
-        <v>9531</v>
+        <v>3254</v>
       </c>
       <c r="F19">
-        <v>35484</v>
+        <v>16491</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1633,19 +1523,19 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>31593</v>
+        <v>29918</v>
       </c>
       <c r="C20">
-        <v>986</v>
+        <v>2457</v>
       </c>
       <c r="D20">
-        <v>17726</v>
+        <v>17257</v>
       </c>
       <c r="E20">
-        <v>9668</v>
+        <v>2642</v>
       </c>
       <c r="F20">
-        <v>37560</v>
+        <v>17257</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1653,19 +1543,19 @@
         <v>39</v>
       </c>
       <c r="B21">
-        <v>32270</v>
+        <v>32522</v>
       </c>
       <c r="C21">
-        <v>975</v>
+        <v>2664</v>
       </c>
       <c r="D21">
-        <v>16850</v>
+        <v>18088</v>
       </c>
       <c r="E21">
-        <v>8964</v>
+        <v>3607</v>
       </c>
       <c r="F21">
-        <v>35823</v>
+        <v>18088</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1673,19 +1563,19 @@
         <v>41</v>
       </c>
       <c r="B22">
-        <v>34790</v>
+        <v>33558</v>
       </c>
       <c r="C22">
-        <v>988</v>
+        <v>2683</v>
       </c>
       <c r="D22">
-        <v>19355</v>
+        <v>19536</v>
       </c>
       <c r="E22">
-        <v>10724</v>
+        <v>2980</v>
       </c>
       <c r="F22">
-        <v>40840</v>
+        <v>19536</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1693,19 +1583,19 @@
         <v>43</v>
       </c>
       <c r="B23">
-        <v>36043</v>
+        <v>35882</v>
       </c>
       <c r="C23">
-        <v>997</v>
+        <v>2778</v>
       </c>
       <c r="D23">
-        <v>21004</v>
+        <v>20432</v>
       </c>
       <c r="E23">
-        <v>11529</v>
+        <v>3659</v>
       </c>
       <c r="F23">
-        <v>44159</v>
+        <v>20433</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1713,19 +1603,19 @@
         <v>45</v>
       </c>
       <c r="B24">
-        <v>37443</v>
+        <v>36379</v>
       </c>
       <c r="C24">
-        <v>993</v>
+        <v>2714</v>
       </c>
       <c r="D24">
-        <v>20621</v>
+        <v>20992</v>
       </c>
       <c r="E24">
-        <v>11133</v>
+        <v>3301</v>
       </c>
       <c r="F24">
-        <v>43402</v>
+        <v>20992</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1733,19 +1623,19 @@
         <v>47</v>
       </c>
       <c r="B25">
-        <v>39700</v>
+        <v>37895</v>
       </c>
       <c r="C25">
-        <v>999</v>
+        <v>2819</v>
       </c>
       <c r="D25">
-        <v>20707</v>
+        <v>22349</v>
       </c>
       <c r="E25">
-        <v>10241</v>
+        <v>2959</v>
       </c>
       <c r="F25">
-        <v>43574</v>
+        <v>22349</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1753,19 +1643,19 @@
         <v>49</v>
       </c>
       <c r="B26">
-        <v>41359</v>
+        <v>38907</v>
       </c>
       <c r="C26">
-        <v>999</v>
+        <v>2887</v>
       </c>
       <c r="D26">
-        <v>21818</v>
+        <v>22542</v>
       </c>
       <c r="E26">
-        <v>10806</v>
+        <v>3422</v>
       </c>
       <c r="F26">
-        <v>45813</v>
+        <v>22544</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1773,39 +1663,59 @@
         <v>51</v>
       </c>
       <c r="B27">
-        <v>43368</v>
+        <v>40607</v>
       </c>
       <c r="C27">
-        <v>994</v>
+        <v>2815</v>
       </c>
       <c r="D27">
-        <v>23965</v>
+        <v>23582</v>
       </c>
       <c r="E27">
-        <v>12516</v>
+        <v>3477</v>
       </c>
       <c r="F27">
-        <v>50095</v>
+        <v>23582</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28">
-        <v>44660</v>
+        <v>7100</v>
       </c>
       <c r="C28">
-        <v>996</v>
+        <v>893</v>
       </c>
       <c r="D28">
-        <v>23272</v>
+        <v>2649</v>
       </c>
       <c r="E28">
-        <v>10970</v>
+        <v>2111</v>
       </c>
       <c r="F28">
-        <v>48722</v>
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>21541</v>
+      </c>
+      <c r="C29">
+        <v>2167</v>
+      </c>
+      <c r="D29">
+        <v>11486</v>
+      </c>
+      <c r="E29">
+        <v>2947</v>
+      </c>
+      <c r="F29">
+        <v>11489</v>
       </c>
     </row>
     <row r="36" spans="5:5">
@@ -1835,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1848,567 +1758,547 @@
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="1">
+        <v>805</v>
+      </c>
+      <c r="C1" s="1">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1">
+        <v>413</v>
+      </c>
+      <c r="E1" s="1">
+        <v>470</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" s="1">
+        <v>2555</v>
+      </c>
+      <c r="C2" s="1">
+        <v>309</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1401</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1447</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4088</v>
+      </c>
+      <c r="C3" s="1">
+        <v>430</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2214</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2039</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>763</v>
-      </c>
-      <c r="C2">
-        <v>107</v>
-      </c>
-      <c r="D2">
-        <v>326</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2450</v>
-      </c>
-      <c r="C3">
-        <v>327</v>
-      </c>
-      <c r="D3">
-        <v>1116</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>4095</v>
-      </c>
-      <c r="C4">
-        <v>540</v>
-      </c>
-      <c r="D4">
-        <v>1938</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="B4" s="1">
+        <v>5817</v>
+      </c>
+      <c r="C4" s="1">
+        <v>551</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3322</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2890</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7812</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>5775</v>
-      </c>
-      <c r="C5">
-        <v>723</v>
-      </c>
-      <c r="D5">
-        <v>2880</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7777</v>
+      </c>
+      <c r="C5" s="1">
+        <v>644</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4334</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3489</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10020</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>7406</v>
-      </c>
-      <c r="C6">
-        <v>918</v>
-      </c>
-      <c r="D6">
-        <v>3684</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9261</v>
+      </c>
+      <c r="C6" s="1">
+        <v>711</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4879</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3583</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11253</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>9058</v>
-      </c>
-      <c r="C7">
-        <v>1058</v>
-      </c>
-      <c r="D7">
-        <v>4660</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="A7" s="1">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10745</v>
+      </c>
+      <c r="C7" s="1">
+        <v>778</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6104</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4457</v>
+      </c>
+      <c r="F7" s="1">
+        <v>13836</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>10864</v>
-      </c>
-      <c r="C8">
-        <v>1231</v>
-      </c>
-      <c r="D8">
-        <v>5590</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12880</v>
+      </c>
+      <c r="C8" s="1">
+        <v>814</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7546</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5307</v>
+      </c>
+      <c r="F8" s="1">
+        <v>16795</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>12628</v>
-      </c>
-      <c r="C9">
-        <v>1412</v>
-      </c>
-      <c r="D9">
-        <v>6298</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="A9" s="1">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>14168</v>
+      </c>
+      <c r="C9" s="1">
+        <v>841</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8325</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6095</v>
+      </c>
+      <c r="F9" s="1">
+        <v>18433</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>14091</v>
-      </c>
-      <c r="C10">
-        <v>1534</v>
-      </c>
-      <c r="D10">
-        <v>7107</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="A10" s="1">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>16142</v>
+      </c>
+      <c r="C10" s="1">
+        <v>876</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9177</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5877</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20204</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>15624</v>
-      </c>
-      <c r="C11">
-        <v>1639</v>
-      </c>
-      <c r="D11">
-        <v>8204</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="A11" s="1">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17598</v>
+      </c>
+      <c r="C11" s="1">
+        <v>912</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10038</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6754</v>
+      </c>
+      <c r="F11" s="1">
+        <v>21994</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>17724</v>
-      </c>
-      <c r="C12">
-        <v>1778</v>
-      </c>
-      <c r="D12">
-        <v>9108</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="A12" s="1">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>19468</v>
+      </c>
+      <c r="C12" s="1">
+        <v>907</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10807</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6871</v>
+      </c>
+      <c r="F12" s="1">
+        <v>23539</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>19237</v>
-      </c>
-      <c r="C13">
-        <v>1865</v>
-      </c>
-      <c r="D13">
-        <v>10277</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="A13" s="1">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21812</v>
+      </c>
+      <c r="C13" s="1">
+        <v>916</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12737</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8162</v>
+      </c>
+      <c r="F13" s="1">
+        <v>27411</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>21084</v>
-      </c>
-      <c r="C14">
-        <v>2025</v>
-      </c>
-      <c r="D14">
-        <v>11065</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+      <c r="A14" s="1">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>23163</v>
+      </c>
+      <c r="C14" s="1">
+        <v>958</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12569</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7954</v>
+      </c>
+      <c r="F14" s="1">
+        <v>27185</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <v>22820</v>
-      </c>
-      <c r="C15">
-        <v>2108</v>
-      </c>
-      <c r="D15">
-        <v>12180</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="A15" s="1">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1">
+        <v>24633</v>
+      </c>
+      <c r="C15" s="1">
+        <v>954</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13475</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8414</v>
+      </c>
+      <c r="F15" s="1">
+        <v>28997</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <v>24614</v>
-      </c>
-      <c r="C16">
-        <v>2205</v>
-      </c>
-      <c r="D16">
-        <v>13383</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
+      <c r="A16" s="1">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>26323</v>
+      </c>
+      <c r="C16" s="1">
+        <v>970</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14079</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8151</v>
+      </c>
+      <c r="F16" s="1">
+        <v>30235</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>26131</v>
-      </c>
-      <c r="C17">
-        <v>2227</v>
-      </c>
-      <c r="D17">
-        <v>14086</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="A17" s="1">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1">
+        <v>27916</v>
+      </c>
+      <c r="C17" s="1">
+        <v>965</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15811</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9438</v>
+      </c>
+      <c r="F17" s="1">
+        <v>33694</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18">
-        <v>33</v>
-      </c>
-      <c r="B18">
-        <v>27519</v>
-      </c>
-      <c r="C18">
-        <v>2332</v>
-      </c>
-      <c r="D18">
-        <v>15069</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
+      <c r="A18" s="1">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>30142</v>
+      </c>
+      <c r="C18" s="1">
+        <v>984</v>
+      </c>
+      <c r="D18" s="1">
+        <v>16688</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9531</v>
+      </c>
+      <c r="F18" s="1">
+        <v>35484</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <v>29187</v>
-      </c>
-      <c r="C19">
-        <v>2500</v>
-      </c>
-      <c r="D19">
-        <v>15774</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
+      <c r="A19" s="1">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1">
+        <v>31593</v>
+      </c>
+      <c r="C19" s="1">
+        <v>986</v>
+      </c>
+      <c r="D19" s="1">
+        <v>17726</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9668</v>
+      </c>
+      <c r="F19" s="1">
+        <v>37560</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20">
-        <v>37</v>
-      </c>
-      <c r="B20">
-        <v>30778</v>
-      </c>
-      <c r="C20">
-        <v>2596</v>
-      </c>
-      <c r="D20">
-        <v>16835</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="A20" s="1">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1">
+        <v>32270</v>
+      </c>
+      <c r="C20" s="1">
+        <v>975</v>
+      </c>
+      <c r="D20" s="1">
+        <v>16850</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8964</v>
+      </c>
+      <c r="F20" s="1">
+        <v>35823</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>32291</v>
-      </c>
-      <c r="C21">
-        <v>2537</v>
-      </c>
-      <c r="D21">
-        <v>17777</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="A21" s="1">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1">
+        <v>34790</v>
+      </c>
+      <c r="C21" s="1">
+        <v>988</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19355</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10724</v>
+      </c>
+      <c r="F21" s="1">
+        <v>40840</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>34055</v>
-      </c>
-      <c r="C22">
-        <v>2692</v>
-      </c>
-      <c r="D22">
-        <v>19021</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="A22" s="1">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1">
+        <v>36043</v>
+      </c>
+      <c r="C22" s="1">
+        <v>997</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21004</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11529</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44159</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23">
-        <v>43</v>
-      </c>
-      <c r="B23">
-        <v>35967</v>
-      </c>
-      <c r="C23">
-        <v>2794</v>
-      </c>
-      <c r="D23">
-        <v>20261</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+      <c r="A23" s="1">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1">
+        <v>37443</v>
+      </c>
+      <c r="C23" s="1">
+        <v>993</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20621</v>
+      </c>
+      <c r="E23" s="1">
+        <v>11133</v>
+      </c>
+      <c r="F23" s="1">
+        <v>43402</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24">
-        <v>45</v>
-      </c>
-      <c r="B24">
-        <v>37688</v>
-      </c>
-      <c r="C24">
-        <v>2787</v>
-      </c>
-      <c r="D24">
-        <v>21659</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+      <c r="A24" s="1">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1">
+        <v>39700</v>
+      </c>
+      <c r="C24" s="1">
+        <v>999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20707</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10241</v>
+      </c>
+      <c r="F24" s="1">
+        <v>43574</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25">
-        <v>47</v>
-      </c>
-      <c r="B25">
-        <v>38696</v>
-      </c>
-      <c r="C25">
-        <v>2796</v>
-      </c>
-      <c r="D25">
-        <v>22531</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="A25" s="1">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1">
+        <v>41359</v>
+      </c>
+      <c r="C25" s="1">
+        <v>999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>21818</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10806</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45813</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26">
-        <v>49</v>
-      </c>
-      <c r="B26">
-        <v>40285</v>
-      </c>
-      <c r="C26">
-        <v>2946</v>
-      </c>
-      <c r="D26">
-        <v>23547</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="A26" s="1">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43368</v>
+      </c>
+      <c r="C26" s="1">
+        <v>994</v>
+      </c>
+      <c r="D26" s="1">
+        <v>23965</v>
+      </c>
+      <c r="E26" s="1">
+        <v>12516</v>
+      </c>
+      <c r="F26" s="1">
+        <v>50095</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>53</v>
       </c>
-      <c r="B27">
-        <v>43219</v>
-      </c>
-      <c r="C27">
-        <v>2879</v>
-      </c>
-      <c r="D27">
-        <v>26029</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>57</v>
-      </c>
-      <c r="B28">
-        <v>44243</v>
-      </c>
-      <c r="C28">
-        <v>3030</v>
-      </c>
-      <c r="D28">
-        <v>26314</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="B27" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C27" s="1">
+        <v>996</v>
+      </c>
+      <c r="D27" s="1">
+        <v>23272</v>
+      </c>
+      <c r="E27" s="1">
+        <v>10970</v>
+      </c>
+      <c r="F27" s="1">
+        <v>48722</v>
       </c>
     </row>
   </sheetData>
@@ -2422,4 +2312,598 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>882</v>
+      </c>
+      <c r="C1">
+        <v>125</v>
+      </c>
+      <c r="D1">
+        <v>409</v>
+      </c>
+      <c r="E1">
+        <v>206</v>
+      </c>
+      <c r="F1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2331</v>
+      </c>
+      <c r="C2">
+        <v>312</v>
+      </c>
+      <c r="D2">
+        <v>1159</v>
+      </c>
+      <c r="E2">
+        <v>413</v>
+      </c>
+      <c r="F2">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4116</v>
+      </c>
+      <c r="C3">
+        <v>532</v>
+      </c>
+      <c r="D3">
+        <v>2110</v>
+      </c>
+      <c r="E3">
+        <v>659</v>
+      </c>
+      <c r="F3">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>5817</v>
+      </c>
+      <c r="C4">
+        <v>725</v>
+      </c>
+      <c r="D4">
+        <v>2838</v>
+      </c>
+      <c r="E4">
+        <v>1054</v>
+      </c>
+      <c r="F4">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>7441</v>
+      </c>
+      <c r="C5">
+        <v>917</v>
+      </c>
+      <c r="D5">
+        <v>3597</v>
+      </c>
+      <c r="E5">
+        <v>1311</v>
+      </c>
+      <c r="F5">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>9093</v>
+      </c>
+      <c r="C6">
+        <v>1084</v>
+      </c>
+      <c r="D6">
+        <v>4496</v>
+      </c>
+      <c r="E6">
+        <v>1584</v>
+      </c>
+      <c r="F6">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>10850</v>
+      </c>
+      <c r="C7">
+        <v>1241</v>
+      </c>
+      <c r="D7">
+        <v>5585</v>
+      </c>
+      <c r="E7">
+        <v>1636</v>
+      </c>
+      <c r="F7">
+        <v>5585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>12509</v>
+      </c>
+      <c r="C8">
+        <v>1393</v>
+      </c>
+      <c r="D8">
+        <v>6411</v>
+      </c>
+      <c r="E8">
+        <v>1972</v>
+      </c>
+      <c r="F8">
+        <v>6411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>14364</v>
+      </c>
+      <c r="C9">
+        <v>1512</v>
+      </c>
+      <c r="D9">
+        <v>7539</v>
+      </c>
+      <c r="E9">
+        <v>2040</v>
+      </c>
+      <c r="F9">
+        <v>7539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>15792</v>
+      </c>
+      <c r="C10">
+        <v>1661</v>
+      </c>
+      <c r="D10">
+        <v>8529</v>
+      </c>
+      <c r="E10">
+        <v>2009</v>
+      </c>
+      <c r="F10">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>17389</v>
+      </c>
+      <c r="C11">
+        <v>1793</v>
+      </c>
+      <c r="D11">
+        <v>9171</v>
+      </c>
+      <c r="E11">
+        <v>2540</v>
+      </c>
+      <c r="F11">
+        <v>9172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>19252</v>
+      </c>
+      <c r="C12">
+        <v>1860</v>
+      </c>
+      <c r="D12">
+        <v>10120</v>
+      </c>
+      <c r="E12">
+        <v>2737</v>
+      </c>
+      <c r="F12">
+        <v>10120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>21042</v>
+      </c>
+      <c r="C13">
+        <v>2036</v>
+      </c>
+      <c r="D13">
+        <v>11270</v>
+      </c>
+      <c r="E13">
+        <v>2750</v>
+      </c>
+      <c r="F13">
+        <v>11270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>23020</v>
+      </c>
+      <c r="C14">
+        <v>2103</v>
+      </c>
+      <c r="D14">
+        <v>12650</v>
+      </c>
+      <c r="E14">
+        <v>2818</v>
+      </c>
+      <c r="F14">
+        <v>12651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>24255</v>
+      </c>
+      <c r="C15">
+        <v>2207</v>
+      </c>
+      <c r="D15">
+        <v>12871</v>
+      </c>
+      <c r="E15">
+        <v>3325</v>
+      </c>
+      <c r="F15">
+        <v>12871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>25914</v>
+      </c>
+      <c r="C16">
+        <v>2306</v>
+      </c>
+      <c r="D16">
+        <v>13893</v>
+      </c>
+      <c r="E16">
+        <v>3352</v>
+      </c>
+      <c r="F16">
+        <v>13893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>28070</v>
+      </c>
+      <c r="C17">
+        <v>2342</v>
+      </c>
+      <c r="D17">
+        <v>15540</v>
+      </c>
+      <c r="E17">
+        <v>3298</v>
+      </c>
+      <c r="F17">
+        <v>15540</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>29534</v>
+      </c>
+      <c r="C18">
+        <v>2406</v>
+      </c>
+      <c r="D18">
+        <v>16489</v>
+      </c>
+      <c r="E18">
+        <v>3254</v>
+      </c>
+      <c r="F18">
+        <v>16491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>29918</v>
+      </c>
+      <c r="C19">
+        <v>2457</v>
+      </c>
+      <c r="D19">
+        <v>17257</v>
+      </c>
+      <c r="E19">
+        <v>2642</v>
+      </c>
+      <c r="F19">
+        <v>17257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>32522</v>
+      </c>
+      <c r="C20">
+        <v>2664</v>
+      </c>
+      <c r="D20">
+        <v>18088</v>
+      </c>
+      <c r="E20">
+        <v>3607</v>
+      </c>
+      <c r="F20">
+        <v>18088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>33558</v>
+      </c>
+      <c r="C21">
+        <v>2683</v>
+      </c>
+      <c r="D21">
+        <v>19536</v>
+      </c>
+      <c r="E21">
+        <v>2980</v>
+      </c>
+      <c r="F21">
+        <v>19536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>35882</v>
+      </c>
+      <c r="C22">
+        <v>2778</v>
+      </c>
+      <c r="D22">
+        <v>20432</v>
+      </c>
+      <c r="E22">
+        <v>3659</v>
+      </c>
+      <c r="F22">
+        <v>20433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>36379</v>
+      </c>
+      <c r="C23">
+        <v>2714</v>
+      </c>
+      <c r="D23">
+        <v>20992</v>
+      </c>
+      <c r="E23">
+        <v>3301</v>
+      </c>
+      <c r="F23">
+        <v>20992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>37895</v>
+      </c>
+      <c r="C24">
+        <v>2819</v>
+      </c>
+      <c r="D24">
+        <v>22349</v>
+      </c>
+      <c r="E24">
+        <v>2959</v>
+      </c>
+      <c r="F24">
+        <v>22349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>38907</v>
+      </c>
+      <c r="C25">
+        <v>2887</v>
+      </c>
+      <c r="D25">
+        <v>22542</v>
+      </c>
+      <c r="E25">
+        <v>3422</v>
+      </c>
+      <c r="F25">
+        <v>22544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>40607</v>
+      </c>
+      <c r="C26">
+        <v>2815</v>
+      </c>
+      <c r="D26">
+        <v>23582</v>
+      </c>
+      <c r="E26">
+        <v>3477</v>
+      </c>
+      <c r="F26">
+        <v>23582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>7100</v>
+      </c>
+      <c r="C27">
+        <v>893</v>
+      </c>
+      <c r="D27">
+        <v>2649</v>
+      </c>
+      <c r="E27">
+        <v>2111</v>
+      </c>
+      <c r="F27">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>21541</v>
+      </c>
+      <c r="C28">
+        <v>2167</v>
+      </c>
+      <c r="D28">
+        <v>11486</v>
+      </c>
+      <c r="E28">
+        <v>2947</v>
+      </c>
+      <c r="F28">
+        <v>11489</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:F28">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/class/client-server.xlsx
+++ b/class/client-server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20680" yWindow="-19500" windowWidth="28800" windowHeight="16980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="client-server.csv" sheetId="1" r:id="rId1"/>
@@ -225,114 +225,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'client-server.csv'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'client-server.csv'!$A$2:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>51.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'client-server.csv'!$B$1</c:f>
@@ -438,7 +332,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'client-server.csv'!$E$1</c:f>
@@ -544,7 +438,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'client-server.csv'!$F$1</c:f>
@@ -658,11 +552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2097391416"/>
-        <c:axId val="-2139124520"/>
+        <c:axId val="-2078340936"/>
+        <c:axId val="-2078355048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2097391416"/>
+        <c:axId val="-2078340936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139124520"/>
+        <c:crossAx val="-2078355048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -704,7 +598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139124520"/>
+        <c:axId val="-2078355048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,7 +633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097391416"/>
+        <c:crossAx val="-2078340936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
